--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C9D2C0-A60A-4F58-8763-E918E9FB4EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFDF5C4-863D-489C-AF11-8D4D3BAD2B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>Relatório de Não Conformidade</t>
   </si>
@@ -74,12 +74,6 @@
     <t>setor</t>
   </si>
   <si>
-    <t>Matrícula:</t>
-  </si>
-  <si>
-    <t>matricula</t>
-  </si>
-  <si>
     <t>Data:</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>2ª ETAPA - AÇÃO IMEDIATA</t>
-  </si>
-  <si>
-    <t>Matrícula</t>
   </si>
   <si>
     <t>Data</t>
@@ -198,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,91 +204,66 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="18"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
-      <color rgb="FF38761D"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -768,8 +734,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -782,293 +754,272 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1086,6 +1037,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>247650</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1333500" cy="628650"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Imagem">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F665FC-267F-44F8-9FC9-C6C1F985E22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="247650"/>
+          <a:ext cx="1333500" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1378,8 +1372,8 @@
   </sheetPr>
   <dimension ref="A1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,777 +1385,807 @@
     <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.140625" style="13" customWidth="1"/>
     <col min="10" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99"/>
-      <c r="B1" s="101" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="102" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="61"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="34"/>
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="102" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="61"/>
-      <c r="I2" s="2">
+      <c r="H2" s="34"/>
+      <c r="I2" s="4">
         <v>44487</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
-      <c r="B3" s="103" t="s">
+      <c r="A3" s="25"/>
+      <c r="B3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="102" t="s">
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="102" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="61"/>
-      <c r="I4" s="4">
+      <c r="H4" s="34"/>
+      <c r="I4" s="6">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="23" t="s">
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
+      <c r="G6" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="94" t="s">
+      <c r="A7" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="98" t="s">
+      <c r="D7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="92"/>
-      <c r="F7" s="18" t="s">
+      <c r="E7" s="40"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="I7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="G8" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="95"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="18" t="s">
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="91" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="92"/>
-      <c r="I8" s="93"/>
-    </row>
-    <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="67" t="s">
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="49"/>
+    </row>
+    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+    </row>
+    <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="79"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="80"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
-    </row>
-    <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="65" t="s">
+      <c r="I13" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="21" t="s">
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="41"/>
+    </row>
+    <row r="16" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H13" s="21" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="60"/>
+    </row>
+    <row r="17" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="61"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
+    </row>
+    <row r="18" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="60"/>
+    </row>
+    <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="85" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="86"/>
-      <c r="I14" s="87"/>
-    </row>
-    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-    </row>
-    <row r="16" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="I19" s="41"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="68"/>
+    </row>
+    <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="72"/>
-    </row>
-    <row r="17" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="72"/>
-    </row>
-    <row r="18" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="72"/>
-    </row>
-    <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76" t="s">
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="69"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="77" t="s">
+      <c r="B23" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-    </row>
-    <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65" t="s">
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
+      <c r="I23" s="73"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="36"/>
-    </row>
-    <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="B24" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="57" t="s">
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="73"/>
+    </row>
+    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="59"/>
-    </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="B25" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="57" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="73"/>
+    </row>
+    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="59"/>
-    </row>
-    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="B26" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="C26" s="72"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="72"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="73"/>
+    </row>
+    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="59"/>
-    </row>
-    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="B27" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="59"/>
-    </row>
-    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="B28" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
+      <c r="I28" s="73"/>
+    </row>
+    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="59"/>
-    </row>
-    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B29" s="34"/>
+      <c r="C29" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="57" t="s">
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="66"/>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="68"/>
+    </row>
+    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="59"/>
-    </row>
-    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="60" t="s">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+    </row>
+    <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="61"/>
-      <c r="C29" s="62" t="s">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="63"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="30"/>
-    </row>
-    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
+      <c r="F32" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-    </row>
-    <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="G32" s="29"/>
+      <c r="H32" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="27"/>
+      <c r="I32" s="78"/>
     </row>
     <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="36"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="70"/>
     </row>
     <row r="34" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="str">
+      <c r="A34" s="81" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,23),"")</f>
         <v/>
       </c>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="13" t="str">
+      <c r="B34" s="82"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
+      <c r="E34" s="19" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,24),"")</f>
         <v/>
       </c>
-      <c r="F34" s="40" t="str">
+      <c r="F34" s="84" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,25),"")</f>
         <v/>
       </c>
-      <c r="G34" s="39"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="85"/>
     </row>
     <row r="35" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="str">
+      <c r="A35" s="81" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,27),"")</f>
         <v/>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="51"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="88"/>
     </row>
     <row r="36" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="str">
+      <c r="A36" s="81" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,31),"")</f>
         <v/>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="13" t="str">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
+      <c r="E36" s="19" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,32),"")</f>
         <v/>
       </c>
-      <c r="F36" s="40" t="str">
+      <c r="F36" s="84" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,33),"")</f>
         <v/>
       </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
+      <c r="G36" s="83"/>
+      <c r="H36" s="84"/>
+      <c r="I36" s="85"/>
     </row>
     <row r="37" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="str">
+      <c r="A37" s="81" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,35),"")</f>
         <v/>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="13" t="str">
+      <c r="B37" s="86"/>
+      <c r="C37" s="86"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="19" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,36),"")</f>
         <v/>
       </c>
-      <c r="F37" s="40" t="str">
+      <c r="F37" s="84" t="str">
         <f>IFERROR(VLOOKUP($B$7,#REF!,37),"")</f>
         <v/>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="51"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="88"/>
     </row>
     <row r="38" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="37"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="41"/>
+      <c r="A38" s="81"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="83"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="85"/>
     </row>
     <row r="39" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="44"/>
+      <c r="A39" s="89"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="90"/>
     </row>
     <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G40" s="15"/>
-      <c r="H40" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="16"/>
+      <c r="A40" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="48"/>
-      <c r="H41" s="29"/>
-      <c r="I41" s="33"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41" s="93"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="94"/>
     </row>
     <row r="42" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
+      <c r="A42" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="96"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
-      <c r="I43" s="30"/>
+      <c r="A43" s="66"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="68"/>
     </row>
     <row r="44" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
+      <c r="A44" s="97" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="78"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="str">
+      <c r="A45" s="98" t="str">
         <f>IF(H42="Não",VLOOKUP($B$7,#REF!,44),"")</f>
         <v/>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="33"/>
+      <c r="B45" s="67"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="67"/>
+      <c r="G45" s="67"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="94"/>
     </row>
     <row r="46" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="36"/>
+      <c r="A46" s="30"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:I46"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="A40:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G14:I14"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2170,56 +2194,15 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I46"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFDF5C4-863D-489C-AF11-8D4D3BAD2B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B93E7-E04E-458E-A73C-459D14454685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>Relatório de Não Conformidade</t>
   </si>
@@ -104,12 +104,6 @@
     <t>ACÇÃO DE CONTENÇÃO</t>
   </si>
   <si>
-    <t>Necessita de uma análise de causa raiz? (Ação corretiva)</t>
-  </si>
-  <si>
-    <t>Não</t>
-  </si>
-  <si>
     <t>3ª ETAPA - ANÁLISE DE CAUZA RAIZ</t>
   </si>
   <si>
@@ -180,6 +174,18 @@
   </si>
   <si>
     <t>status</t>
+  </si>
+  <si>
+    <t>coluna W</t>
+  </si>
+  <si>
+    <t>coluna AA</t>
+  </si>
+  <si>
+    <t>coluna AB</t>
+  </si>
+  <si>
+    <t>Executor</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,13 +266,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -296,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -632,21 +631,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -675,66 +659,125 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -754,36 +797,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -791,235 +806,292 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1370,100 +1442,100 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA46"/>
+  <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="16" customWidth="1"/>
     <col min="10" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="101"/>
+      <c r="B1" s="103" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
       <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="33" t="s">
+      <c r="F1" s="54"/>
+      <c r="G1" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="34"/>
+      <c r="H1" s="67"/>
       <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="33" t="s">
+      <c r="A2" s="102"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="34"/>
+      <c r="H2" s="67"/>
       <c r="I2" s="4">
         <v>44487</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="35" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="105" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="28"/>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="54"/>
+      <c r="G3" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="34"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="34"/>
+      <c r="H4" s="67"/>
       <c r="I4" s="6">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="96" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="28"/>
@@ -1473,11 +1545,11 @@
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
+      <c r="G6" s="97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="98"/>
+      <c r="I6" s="78"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
@@ -1498,186 +1570,182 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9" t="s">
+      <c r="E7" s="98"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="9" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="78"/>
+    </row>
+    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-    </row>
-    <row r="11" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="49"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="86"/>
+    </row>
+    <row r="11" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="86"/>
     </row>
     <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
     </row>
     <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="83" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="28"/>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
       <c r="E13" s="28"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="12" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="12" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
     </row>
     <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="41"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="78"/>
     </row>
     <row r="16" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="62"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="60"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="41"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1698,163 +1766,163 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="66"/>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="68"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="81"/>
     </row>
     <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
-        <v>25</v>
+      <c r="A21" s="83" t="s">
+        <v>23</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28"/>
       <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="16"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="70"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
+      <c r="H22" s="72"/>
+      <c r="I22" s="73"/>
     </row>
     <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="84" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B24" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
-    </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+    </row>
+    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B25" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-    </row>
-    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+    </row>
+    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B26" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-    </row>
-    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="65"/>
+    </row>
+    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B27" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="72"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="65"/>
+    </row>
+    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
-    </row>
-    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="65"/>
+    </row>
+    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B29" s="67"/>
+      <c r="C29" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="73"/>
-    </row>
-    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="69"/>
+    </row>
+    <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="52" t="s">
         <v>38</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="75" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="76"/>
-    </row>
-    <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="66"/>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="68"/>
-    </row>
-    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="77" t="s">
-        <v>40</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
@@ -1863,7 +1931,7 @@
       <c r="F31" s="28"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
-      <c r="I31" s="78"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1884,308 +1952,307 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79" t="s">
-        <v>41</v>
+      <c r="A32" s="53" t="s">
+        <v>39</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="80" t="s">
+      <c r="D32" s="54"/>
+      <c r="E32" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="58"/>
+      <c r="H32" s="61" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="79" t="s">
+    </row>
+    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="32"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+    </row>
+    <row r="34" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+    </row>
+    <row r="35" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+    </row>
+    <row r="37" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+    </row>
+    <row r="38" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+    </row>
+    <row r="39" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+    </row>
+    <row r="40" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+    </row>
+    <row r="41" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+    </row>
+    <row r="42" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+    </row>
+    <row r="43" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+    </row>
+    <row r="44" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="45"/>
+    </row>
+    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="79" t="s">
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="H46" s="25"/>
+      <c r="I46" s="31"/>
+    </row>
+    <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="78"/>
-    </row>
-    <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="70"/>
-    </row>
-    <row r="34" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="81" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,23),"")</f>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+    </row>
+    <row r="48" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
+    </row>
+    <row r="49" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+      <c r="AA49" s="1"/>
+    </row>
+    <row r="50" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="str">
+        <f>IF(H47="Não",VLOOKUP($B$7,#REF!,44),"")</f>
         <v/>
       </c>
-      <c r="B34" s="82"/>
-      <c r="C34" s="82"/>
-      <c r="D34" s="83"/>
-      <c r="E34" s="19" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,24),"")</f>
-        <v/>
-      </c>
-      <c r="F34" s="84" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,25),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="85"/>
-    </row>
-    <row r="35" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="81" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,27),"")</f>
-        <v/>
-      </c>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="88"/>
-    </row>
-    <row r="36" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="81" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,31),"")</f>
-        <v/>
-      </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="19" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,32),"")</f>
-        <v/>
-      </c>
-      <c r="F36" s="84" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,33),"")</f>
-        <v/>
-      </c>
-      <c r="G36" s="83"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="85"/>
-    </row>
-    <row r="37" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="81" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,35),"")</f>
-        <v/>
-      </c>
-      <c r="B37" s="86"/>
-      <c r="C37" s="86"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="19" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,36),"")</f>
-        <v/>
-      </c>
-      <c r="F37" s="84" t="str">
-        <f>IFERROR(VLOOKUP($B$7,#REF!,37),"")</f>
-        <v/>
-      </c>
-      <c r="G37" s="87"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="88"/>
-    </row>
-    <row r="38" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="81"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="83"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="85"/>
-    </row>
-    <row r="39" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="90"/>
-    </row>
-    <row r="40" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="22"/>
-    </row>
-    <row r="41" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="93"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="94"/>
-    </row>
-    <row r="42" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="78"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-    </row>
-    <row r="43" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="66"/>
-      <c r="B43" s="67"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="68"/>
-    </row>
-    <row r="44" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="78"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-    </row>
-    <row r="45" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="98" t="str">
-        <f>IF(H42="Não",VLOOKUP($B$7,#REF!,44),"")</f>
-        <v/>
-      </c>
-      <c r="B45" s="67"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="94"/>
-    </row>
-    <row r="46" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="30"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="70"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="32"/>
+      <c r="B51" s="33"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:I46"/>
+  <mergeCells count="68">
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="A40:E41"/>
-    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2194,13 +2261,49 @@
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:E8"/>
     <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="H21:I22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I51"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B93E7-E04E-458E-A73C-459D14454685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A96252-76ED-4431-B697-10482C128205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>Relatório de Não Conformidade</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Código:</t>
   </si>
   <si>
-    <t>RNC GQ-001-000</t>
-  </si>
-  <si>
     <t>Data de Emissão:</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>2ª ETAPA - AÇÃO IMEDIATA</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Ação imediata</t>
   </si>
   <si>
@@ -167,12 +161,6 @@
     <t>4ª ETAPA - EFICÁCIA</t>
   </si>
   <si>
-    <t>As ações corretivas foram eficazes? (Caso não, abrir nova RNC)</t>
-  </si>
-  <si>
-    <t>INFORMAÇÕES ADICIONAIS</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -186,6 +174,18 @@
   </si>
   <si>
     <t>Executor</t>
+  </si>
+  <si>
+    <t>As ações corretivas foram eficazes?</t>
+  </si>
+  <si>
+    <t>CONCLUSÃO</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>RNC GQ-035-000</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +261,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -295,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -559,73 +566,28 @@
         <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFC6C6C6"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,6 +725,80 @@
     <border>
       <left style="thin">
         <color rgb="FFC6C6C6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFC6C6C6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FFC6C6C6"/>
@@ -777,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -797,28 +833,208 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -827,83 +1043,41 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -911,7 +1085,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,179 +1094,62 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1444,112 +1501,114 @@
   </sheetPr>
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:I19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="11" customWidth="1"/>
     <col min="10" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101"/>
-      <c r="B1" s="103" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="104" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="67"/>
+      <c r="H1" s="33"/>
       <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="102"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="104" t="s">
+      <c r="H2" s="33"/>
+      <c r="I2" s="4">
+        <v>45216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24"/>
+      <c r="B3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="4">
-        <v>44487</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102"/>
-      <c r="B3" s="105" t="s">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="104" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="104" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="6">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="97" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="78"/>
+      <c r="G6" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="39"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="2"/>
@@ -1570,182 +1629,182 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="C7" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="D7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="100" t="s">
+      <c r="E7" s="42"/>
+      <c r="F7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11" t="s">
+      <c r="G7" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="H7" s="49"/>
+      <c r="I7" s="50"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:27" ht="18" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="97" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
+    </row>
+    <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="98"/>
-      <c r="I8" s="78"/>
-    </row>
-    <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="78"/>
-    </row>
-    <row r="10" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="55"/>
+    </row>
+    <row r="11" spans="1:27" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="86"/>
-    </row>
-    <row r="11" spans="1:27" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-    </row>
-    <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="49"/>
+      <c r="I13" s="50"/>
+    </row>
+    <row r="14" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="98"/>
+      <c r="I14" s="99"/>
+    </row>
+    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="13" t="s">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="40"/>
+    </row>
+    <row r="16" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="91" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-    </row>
-    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="78"/>
-    </row>
-    <row r="16" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="82"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
     </row>
     <row r="17" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
     </row>
     <row r="18" spans="1:27" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
     </row>
     <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="82"/>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1766,172 +1825,172 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="81"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="71"/>
+      <c r="I21" s="71"/>
+    </row>
+    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="71"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="71"/>
+    </row>
+    <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-    </row>
-    <row r="23" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="68"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="84" t="s">
+      <c r="B24" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-    </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="70"/>
+    </row>
+    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B25" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-    </row>
-    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="70"/>
+    </row>
+    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="63" t="s">
+      <c r="B26" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-    </row>
-    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="70"/>
+    </row>
+    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="63" t="s">
+      <c r="B27" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="65"/>
-    </row>
-    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="70"/>
+    </row>
+    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="63" t="s">
+      <c r="B28" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="65"/>
-    </row>
-    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="70"/>
+    </row>
+    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="63" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="65"/>
-    </row>
-    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="66" t="s">
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="112"/>
+    </row>
+    <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="74"/>
+      <c r="B30" s="75"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="69"/>
-    </row>
-    <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="29"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="78"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1952,202 +2011,202 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="53" t="s">
+      <c r="A32" s="79" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="82"/>
+      <c r="H32" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="55" t="s">
+      <c r="I32" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="61" t="s">
+    </row>
+    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="83"/>
+      <c r="G33" s="84"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
+    </row>
+    <row r="34" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+    </row>
+    <row r="35" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+    </row>
+    <row r="36" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+    </row>
+    <row r="37" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+    </row>
+    <row r="38" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+    </row>
+    <row r="39" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+    </row>
+    <row r="40" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+    </row>
+    <row r="41" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+    </row>
+    <row r="42" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+    </row>
+    <row r="43" spans="1:27" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="88"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+    </row>
+    <row r="44" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="89"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="91"/>
+    </row>
+    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-    </row>
-    <row r="35" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-    </row>
-    <row r="37" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-    </row>
-    <row r="38" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="38"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-    </row>
-    <row r="39" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="38"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-    </row>
-    <row r="40" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="50"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-    </row>
-    <row r="42" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="38"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-    </row>
-    <row r="43" spans="1:27" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="38"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-    </row>
-    <row r="44" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="43"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="44"/>
-      <c r="E44" s="44"/>
-      <c r="F44" s="44"/>
-      <c r="G44" s="44"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="45"/>
-    </row>
-    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="21" t="s">
-        <v>48</v>
-      </c>
+      <c r="B45" s="75"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="75"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H45" s="96"/>
+      <c r="I45" s="96"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="31"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" s="95"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="37"/>
+      <c r="A47" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2167,29 +2226,29 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="26"/>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="109"/>
+      <c r="C48" s="109"/>
+      <c r="D48" s="109"/>
+      <c r="E48" s="109"/>
+      <c r="F48" s="109"/>
+      <c r="G48" s="109"/>
+      <c r="H48" s="109"/>
+      <c r="I48" s="110"/>
     </row>
     <row r="49" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="29"/>
+      <c r="A49" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="101"/>
+      <c r="C49" s="101"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="102"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2210,32 +2269,90 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="30" t="str">
-        <f>IF(H47="Não",VLOOKUP($B$7,#REF!,44),"")</f>
-        <v/>
-      </c>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="25"/>
-      <c r="I50" s="31"/>
+      <c r="A50" s="103"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="105"/>
     </row>
     <row r="51" spans="1:27" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="34"/>
+      <c r="A51" s="106"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="107"/>
+      <c r="D51" s="107"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="108"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="71">
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I51"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="G21:I22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="A38:D38"/>
@@ -2246,64 +2363,6 @@
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I51"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:E46"/>
-    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E341537-E483-434D-B1C3-B311E049976B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F04FB38-6CE9-42BE-A781-6E8742EEA429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,28 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -635,7 +657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -691,281 +713,284 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,66 +1009,68 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1276350</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagem 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFFFD1F7-5608-44F2-A7DD-E6345E08756A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:schemeClr val="accent5">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:schemeClr>
-          </a:duotone>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="76200" y="390525"/>
-          <a:ext cx="1200150" cy="400051"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1337,7 +1364,7 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="B1" sqref="B1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,96 +1381,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="109" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="A2" s="110"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="2">
         <v>45216</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="110"/>
+      <c r="B3" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="A4" s="111"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="4">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
@@ -1464,182 +1493,182 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="36"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:27" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:27" s="9" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="36"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1660,172 +1689,172 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
     </row>
     <row r="23" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="72"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="72"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="72"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="72"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="72"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="74" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="33" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="72"/>
+    </row>
+    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="77"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -1846,202 +1875,202 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="79" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="80"/>
-      <c r="H32" s="79" t="s">
+      <c r="G32" s="58"/>
+      <c r="H32" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="84" t="s">
+      <c r="I32" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="85"/>
-    </row>
-    <row r="34" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="86"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="87"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="63"/>
+    </row>
+    <row r="34" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="89"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="86"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="87"/>
+    <row r="35" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="89"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="86"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="87"/>
+    <row r="36" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="89"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="87"/>
+    <row r="37" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="89"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="87"/>
+    <row r="38" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="89"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="87"/>
+    <row r="39" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="88"/>
-      <c r="G39" s="89"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="86"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="87"/>
+    <row r="40" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="89"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="86"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="87"/>
+    <row r="41" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="89"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="86"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="87"/>
+    <row r="42" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="89"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="86"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="87"/>
+    <row r="43" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="89"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
-      <c r="B44" s="91"/>
-      <c r="C44" s="91"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="92"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="94"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="95" t="s">
+      <c r="G45" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="96"/>
-      <c r="I45" s="96"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="94"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="97" t="s">
+      <c r="G46" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="98"/>
-      <c r="I46" s="99"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="100"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -2061,29 +2090,29 @@
       <c r="Z47" s="6"/>
       <c r="AA47" s="6"/>
     </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="103" t="s">
+      <c r="A49" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="104"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -2104,29 +2133,90 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="105"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="107"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
     </row>
     <row r="51" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="108"/>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="110"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:I49"/>
@@ -2137,69 +2227,7 @@
     <mergeCell ref="A45:E46"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="G46:I46"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F04FB38-6CE9-42BE-A781-6E8742EEA429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0E939-AFE0-47AE-BFCA-E0328134E0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,28 +17,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
-  <metadataTypes count="1">
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLRICHVALUE" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <valueMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </valueMetadata>
-</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,15 +691,225 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,9 +917,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -755,28 +940,10 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,15 +952,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -808,189 +969,6 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1009,68 +987,59 @@
 </styleSheet>
 </file>
 
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <rv s="0">
-    <v>0</v>
-    <v>5</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FAAF4AA-04AF-B3F5-054A-3FB51450EE23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28575" y="333375"/>
+          <a:ext cx="1343025" cy="447675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1364,7 +1333,7 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F2"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,98 +1350,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="109" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B1" s="106" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="107" t="s">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="68"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="110"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="107" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="68"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="2">
         <v>45216</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="110"/>
-      <c r="B3" s="108" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="107" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="68"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="111"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="107" t="s">
+      <c r="A4" s="21"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="68"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="4">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="79"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
@@ -1493,182 +1460,182 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="100"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G7" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="43"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="36"/>
     </row>
     <row r="10" spans="1:27" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:27" s="9" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="51"/>
     </row>
     <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G13" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
       <c r="F14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G14" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1689,172 +1656,172 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="72"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="84" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
     </row>
     <row r="23" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
     </row>
     <row r="24" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="72"/>
     </row>
     <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="72"/>
     </row>
     <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="72"/>
     </row>
     <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="72"/>
     </row>
     <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="70"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="76"/>
     </row>
     <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="72"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
     </row>
     <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+      <c r="A31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="74"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="77"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -1875,202 +1842,202 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="56" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F32" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="56" t="s">
+      <c r="G32" s="81"/>
+      <c r="H32" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="62" t="s">
+      <c r="I32" s="85" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="63"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="83"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="86"/>
     </row>
     <row r="34" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="A34" s="87"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="88"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
+      <c r="A35" s="87"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="88"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
+      <c r="F35" s="89"/>
+      <c r="G35" s="90"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="88"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
+      <c r="F36" s="89"/>
+      <c r="G36" s="90"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
+      <c r="A37" s="87"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="88"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="90"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="A38" s="87"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="88"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="90"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
+      <c r="A39" s="87"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="88"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="90"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="88"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="90"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
+      <c r="A41" s="87"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="88"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="90"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
+      <c r="A42" s="87"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="88"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="90"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
+      <c r="A43" s="87"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="75"/>
+      <c r="D43" s="88"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="37"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="90"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="41"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="104"/>
     </row>
     <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="106"/>
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G45" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="44"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="106"/>
       <c r="F46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G46" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50"/>
+      <c r="H46" s="110"/>
+      <c r="I46" s="111"/>
     </row>
     <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="91"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -2091,28 +2058,28 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="93"/>
     </row>
     <row r="49" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="95"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -2133,90 +2100,29 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
+      <c r="A50" s="96"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="98"/>
     </row>
     <row r="51" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
+      <c r="A51" s="99"/>
+      <c r="B51" s="100"/>
+      <c r="C51" s="100"/>
+      <c r="D51" s="100"/>
+      <c r="E51" s="100"/>
+      <c r="F51" s="100"/>
+      <c r="G51" s="100"/>
+      <c r="H51" s="100"/>
+      <c r="I51" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:I49"/>
@@ -2227,7 +2133,69 @@
     <mergeCell ref="A45:E46"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="G46:I46"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I22"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A0E939-AFE0-47AE-BFCA-E0328134E0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE6C58-4B04-4B0C-AFA4-447F4BC1DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -691,6 +691,267 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -703,272 +964,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1333,7 @@
   <dimension ref="A1:AA51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,96 +1350,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19"/>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="106"/>
+      <c r="B1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="28" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="29"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28" t="s">
+      <c r="A2" s="107"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
+      <c r="H2" s="68"/>
       <c r="I2" s="2">
-        <v>45216</v>
+        <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="107"/>
+      <c r="B3" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="28" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="29"/>
+      <c r="H3" s="68"/>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28" t="s">
+      <c r="A4" s="108"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="110" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="4">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
+      <c r="A5" s="90"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="34" t="s">
+      <c r="G6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="H6" s="98"/>
+      <c r="I6" s="79"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
@@ -1460,182 +1460,182 @@
       <c r="AA6" s="6"/>
     </row>
     <row r="7" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="38"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="42"/>
-      <c r="I7" s="43"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="101"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="A9" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="36"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="79"/>
     </row>
     <row r="10" spans="1:27" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="89"/>
     </row>
     <row r="11" spans="1:27" s="9" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="51"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="32"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
     </row>
     <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
       <c r="F13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="41" t="s">
+      <c r="G13" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
     </row>
     <row r="14" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+      <c r="A15" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="36"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="82"/>
     </row>
     <row r="17" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="82"/>
     </row>
     <row r="18" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="59"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="82"/>
     </row>
     <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -1656,172 +1656,172 @@
       <c r="AA19" s="6"/>
     </row>
     <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="72"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="63" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
     </row>
     <row r="23" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="68"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="70"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="72"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="72"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="72"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="72"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="66"/>
     </row>
     <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="72"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="66"/>
     </row>
     <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="67" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="74" t="s">
+      <c r="B29" s="68"/>
+      <c r="C29" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="75"/>
-      <c r="G29" s="75"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="76"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="70"/>
     </row>
     <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="77"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="74"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
@@ -1842,202 +1842,202 @@
       <c r="AA31" s="6"/>
     </row>
     <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="78" t="s">
+      <c r="A32" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="79" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="78" t="s">
+      <c r="F32" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="81"/>
-      <c r="H32" s="79" t="s">
+      <c r="G32" s="58"/>
+      <c r="H32" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="85" t="s">
+      <c r="I32" s="62" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="86"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="63"/>
     </row>
     <row r="34" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="88"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="13"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="90"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="88"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="13"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="90"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="37"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="88"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="35"/>
       <c r="E36" s="13"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="90"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="88"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="35"/>
       <c r="E37" s="13"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="90"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="88"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="35"/>
       <c r="E38" s="13"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="90"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="88"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="35"/>
       <c r="E39" s="13"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="90"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="87"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="88"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="35"/>
       <c r="E40" s="13"/>
-      <c r="F40" s="89"/>
-      <c r="G40" s="90"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="88"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="35"/>
       <c r="E41" s="13"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="90"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="88"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
       <c r="E42" s="13"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="90"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
     <row r="43" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="75"/>
-      <c r="D43" s="88"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="35"/>
       <c r="E43" s="13"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="90"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
     <row r="44" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="102"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="104"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="41"/>
     </row>
     <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="105" t="s">
+      <c r="A45" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
-      <c r="E45" s="106"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="44"/>
       <c r="F45" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="53"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="106"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="44"/>
       <c r="F46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="109" t="s">
+      <c r="G46" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="110"/>
-      <c r="I46" s="111"/>
+      <c r="H46" s="49"/>
+      <c r="I46" s="50"/>
     </row>
     <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="47" t="s">
+      <c r="A47" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="47"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="47"/>
-      <c r="I47" s="91"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="20"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
@@ -2058,28 +2058,28 @@
       <c r="AA47" s="6"/>
     </row>
     <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="93"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="94" t="s">
+      <c r="A49" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="95"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="26"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
@@ -2100,29 +2100,90 @@
       <c r="AA49" s="6"/>
     </row>
     <row r="50" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="98"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="29"/>
     </row>
     <row r="51" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
-      <c r="B51" s="100"/>
-      <c r="C51" s="100"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="100"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="101"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A9:I9"/>
+    <mergeCell ref="A10:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A13:E14"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A15:I15"/>
+    <mergeCell ref="A16:I19"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:I22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:I29"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A49:I49"/>
@@ -2133,67 +2194,6 @@
     <mergeCell ref="A45:E46"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="G46:I46"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFE6C58-4B04-4B0C-AFA4-447F4BC1DC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B9EBD2-FE57-4C45-82B1-424B4BB06AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RNCAC GQ-001-000" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Relatório de Não Conformidade</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>CONCLUSÃO</t>
+  </si>
+  <si>
+    <t>“Se você está lendo este documento em mídia impressa, esta é uma cópia Não-Controlada”</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +256,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -282,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -631,11 +646,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -646,12 +689,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -691,15 +728,219 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="8" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -707,9 +948,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -733,28 +971,10 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -763,15 +983,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -787,188 +1001,32 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="21" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1330,799 +1388,879 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="17.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.5703125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="10" max="27" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106"/>
-      <c r="B1" s="109" t="s">
+      <c r="A1" s="17"/>
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="110" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="68"/>
+      <c r="H1" s="26"/>
       <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="110" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="68"/>
+      <c r="H2" s="26"/>
       <c r="I2" s="2">
         <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="107"/>
-      <c r="B3" s="111" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="110" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="68"/>
+      <c r="H3" s="26"/>
       <c r="I3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="108"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="110" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="4">
+      <c r="H4" s="21"/>
+      <c r="I4" s="109">
         <v>44197</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="91"/>
-    </row>
-    <row r="6" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="73" t="s">
+    <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+    </row>
+    <row r="6" spans="1:27" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+    </row>
+    <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="5" t="s">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="98"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-    </row>
-    <row r="7" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="H7" s="76"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+    </row>
+    <row r="8" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C8" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D8" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="100"/>
-      <c r="F7" s="8" t="s">
+      <c r="E8" s="34"/>
+      <c r="F8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="92" t="s">
+      <c r="G8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="93"/>
-      <c r="I7" s="94"/>
-      <c r="L7" s="7"/>
-    </row>
-    <row r="8" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="8" t="s">
+      <c r="H8" s="38"/>
+      <c r="I8" s="39"/>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="103" t="s">
+      <c r="G9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="104"/>
-      <c r="I8" s="105"/>
-    </row>
-    <row r="9" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="79"/>
-    </row>
-    <row r="10" spans="1:27" s="9" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="32"/>
+    </row>
+    <row r="11" spans="1:27" s="7" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
-      <c r="G10" s="88"/>
-      <c r="H10" s="88"/>
-      <c r="I10" s="89"/>
-    </row>
-    <row r="11" spans="1:27" s="9" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-    </row>
-    <row r="12" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="91"/>
-    </row>
-    <row r="13" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83" t="s">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
+    </row>
+    <row r="12" spans="1:27" s="7" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
+    </row>
+    <row r="13" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
+    </row>
+    <row r="14" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="10" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="92" t="s">
+      <c r="G14" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="93"/>
-      <c r="I13" s="94"/>
-    </row>
-    <row r="14" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="11" t="s">
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+    </row>
+    <row r="15" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="95" t="s">
+      <c r="G15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="96"/>
-      <c r="I14" s="97"/>
-    </row>
-    <row r="15" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
+    </row>
+    <row r="16" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="79"/>
-    </row>
-    <row r="16" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="32"/>
+    </row>
+    <row r="17" spans="1:27" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="81"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="81"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="82"/>
-    </row>
-    <row r="17" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="82"/>
-    </row>
-    <row r="18" spans="1:27" s="9" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="82"/>
-    </row>
-    <row r="19" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
-    </row>
-    <row r="20" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="72"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="55"/>
+    </row>
+    <row r="18" spans="1:27" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="55"/>
+    </row>
+    <row r="19" spans="1:27" s="7" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="55"/>
+    </row>
+    <row r="20" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83" t="s">
+      <c r="A21" s="56"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="84" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G22" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-    </row>
-    <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-    </row>
-    <row r="23" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+    </row>
+    <row r="23" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="22"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+    </row>
+    <row r="24" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B24" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
-      <c r="I23" s="77"/>
-    </row>
-    <row r="24" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
       <c r="F24" s="65"/>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
       <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="68"/>
+    </row>
+    <row r="26" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B26" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="65"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="65"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="66"/>
-    </row>
-    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="68"/>
+    </row>
+    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B27" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="66"/>
-    </row>
-    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="68"/>
+    </row>
+    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B28" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="66"/>
-    </row>
-    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="68"/>
+    </row>
+    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B29" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66"/>
-    </row>
-    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="67" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="64"/>
+      <c r="I29" s="68"/>
+    </row>
+    <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="68"/>
-      <c r="C29" s="69" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="70"/>
-    </row>
-    <row r="30" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
       <c r="I30" s="72"/>
     </row>
-    <row r="31" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="73" t="s">
+    <row r="31" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="56"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+    </row>
+    <row r="32" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-      <c r="AA31" s="6"/>
-    </row>
-    <row r="32" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+    </row>
+    <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="56" t="s">
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="51" t="s">
+      <c r="F33" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="56" t="s">
+      <c r="G33" s="77"/>
+      <c r="H33" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="I32" s="62" t="s">
+      <c r="I33" s="81" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-    </row>
-    <row r="36" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="33"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-    </row>
-    <row r="38" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-    </row>
-    <row r="40" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="33"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="33"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-    </row>
-    <row r="42" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="33"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" spans="1:27" s="9" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="33"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-    </row>
-    <row r="44" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="41"/>
-    </row>
-    <row r="45" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+    <row r="34" spans="1:27" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="82"/>
+    </row>
+    <row r="35" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="83"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+    </row>
+    <row r="36" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="83"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+    </row>
+    <row r="37" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="83"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+    </row>
+    <row r="38" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="83"/>
+      <c r="B38" s="71"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+    </row>
+    <row r="39" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="83"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+    </row>
+    <row r="40" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="83"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="83"/>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+    </row>
+    <row r="42" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="83"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="71"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+    </row>
+    <row r="43" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="83"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+    </row>
+    <row r="44" spans="1:27" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="83"/>
+      <c r="B44" s="71"/>
+      <c r="C44" s="71"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+    </row>
+    <row r="45" spans="1:27" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="98"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="99"/>
+      <c r="F45" s="99"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="100"/>
+    </row>
+    <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="15" t="s">
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="102"/>
+      <c r="F46" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G46" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="47"/>
-    </row>
-    <row r="46" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="16" t="s">
+      <c r="H46" s="104"/>
+      <c r="I46" s="104"/>
+    </row>
+    <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="50"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="102"/>
+      <c r="F47" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G46" s="48" t="s">
+      <c r="G47" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H46" s="49"/>
-      <c r="I46" s="50"/>
-    </row>
-    <row r="47" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19" t="s">
+      <c r="H47" s="106"/>
+      <c r="I47" s="107"/>
+    </row>
+    <row r="48" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-      <c r="AA47" s="6"/>
-    </row>
-    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
-    </row>
-    <row r="49" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="87"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="88"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="89"/>
+    </row>
+    <row r="50" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="25"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
-      <c r="AA49" s="6"/>
-    </row>
-    <row r="50" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="29"/>
-    </row>
-    <row r="51" spans="1:27" s="9" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="32"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="50"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="50"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+    </row>
+    <row r="51" spans="1:27" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="92"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+      <c r="G51" s="93"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="94"/>
+    </row>
+    <row r="52" spans="1:27" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="95"/>
+      <c r="B52" s="96"/>
+      <c r="C52" s="96"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="97"/>
     </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="72">
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I52"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="A46:E47"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:I23"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A11:I12"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:H1"/>
@@ -2130,70 +2268,6 @@
     <mergeCell ref="B3:F4"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A10:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A13:E14"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A15:I15"/>
-    <mergeCell ref="A16:I19"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:I29"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="A50:I51"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="A45:E46"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="G46:I46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DE20D4A-A05F-466F-96D8-135E0FB937FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFBD11D-0E17-4B43-AAF3-49AC4DB84E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RNCAC GQ-001-000" sheetId="1" r:id="rId1"/>
@@ -192,12 +192,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -223,20 +217,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -245,19 +225,38 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -303,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="62">
     <border>
       <left/>
       <right/>
@@ -554,30 +553,6 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -691,28 +666,363 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFC6C6C6"/>
       </left>
+      <right style="thin">
+        <color rgb="FFC6C6C6"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFC6C6C6"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -721,317 +1031,7 @@
       <right style="thin">
         <color rgb="FFC6C6C6"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC6C6C6"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFC6C6C6"/>
-      </right>
       <top/>
-      <bottom style="thin">
-        <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1039,7 +1039,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1068,8 +1068,281 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1081,9 +1354,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1108,348 +1378,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1814,7 +1789,7 @@
   <dimension ref="A1:AA52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,111 +1806,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="103"/>
+      <c r="B1" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="20" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="21"/>
+      <c r="H1" s="111"/>
       <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="20" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="21"/>
+      <c r="H2" s="111"/>
       <c r="I2" s="2">
         <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="22" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="20" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="21"/>
+      <c r="H3" s="111"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="26" t="s">
+      <c r="A4" s="104"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="106"/>
       <c r="I4" s="9">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
     </row>
     <row r="6" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-    </row>
-    <row r="7" spans="1:27" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+    </row>
+    <row r="7" spans="1:27" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="11" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="31" t="s">
+      <c r="G7" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="119"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -1955,193 +1930,193 @@
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
     </row>
-    <row r="8" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="97" t="s">
+      <c r="E8" s="116"/>
+      <c r="F8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="97" t="s">
+      <c r="H8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="64" t="s">
+      <c r="I8" s="117" t="s">
         <v>40</v>
       </c>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="97" t="s">
+    <row r="9" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="101"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="H9" s="116"/>
+      <c r="I9" s="116"/>
     </row>
     <row r="10" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-    </row>
-    <row r="11" spans="1:27" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="99" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="98" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
-    </row>
-    <row r="12" spans="1:27" s="6" customFormat="1" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65" t="s">
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="67"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="100" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="90"/>
+    </row>
+    <row r="14" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="101"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="107" t="s">
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="120" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="107" t="s">
+      <c r="H14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="70" t="s">
+      <c r="I14" s="120" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="103"/>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="106" t="s">
+    <row r="15" spans="1:27" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="94"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="68" t="s">
+      <c r="G15" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
-    </row>
-    <row r="16" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="108" t="s">
+      <c r="H15" s="121"/>
+      <c r="I15" s="122"/>
+    </row>
+    <row r="16" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="110"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
     </row>
     <row r="17" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="71" t="s">
+      <c r="A17" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="72"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
     </row>
     <row r="18" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="76"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="76"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="77"/>
     </row>
     <row r="20" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="79"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2162,172 +2137,172 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="A21" s="81"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="111" t="s">
+      <c r="A22" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="115" t="s">
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="115" t="s">
+      <c r="G22" s="123"/>
+      <c r="H22" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="80"/>
+      <c r="I22" s="123"/>
     </row>
     <row r="23" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="114"/>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="81"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="81"/>
-    </row>
-    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="117" t="s">
+      <c r="A23" s="82"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="124"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="124"/>
+    </row>
+    <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="45"/>
-    </row>
-    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="117" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="68"/>
+    </row>
+    <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="47"/>
-    </row>
-    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="117" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
+    </row>
+    <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="47"/>
-    </row>
-    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="117" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="54"/>
+    </row>
+    <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="46" t="s">
+      <c r="B27" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="47"/>
-    </row>
-    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="117" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="54"/>
+    </row>
+    <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="46" t="s">
+      <c r="B28" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="43"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="43"/>
-      <c r="I28" s="47"/>
-    </row>
-    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="117" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="54"/>
+    </row>
+    <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="43"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="43"/>
-      <c r="I29" s="47"/>
-    </row>
-    <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="118" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="54"/>
+    </row>
+    <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="48" t="s">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="59"/>
     </row>
     <row r="31" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
+      <c r="A31" s="60"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="62"/>
     </row>
     <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="120" t="s">
+      <c r="A32" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="121"/>
-      <c r="C32" s="121"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="121"/>
-      <c r="H32" s="121"/>
-      <c r="I32" s="122"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="64"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="64"/>
+      <c r="H32" s="64"/>
+      <c r="I32" s="65"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2348,208 +2323,208 @@
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="123" t="s">
+      <c r="A33" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="124"/>
-      <c r="E33" s="125" t="s">
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="123" t="s">
+      <c r="F33" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="124"/>
-      <c r="H33" s="123" t="s">
+      <c r="G33" s="46"/>
+      <c r="H33" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="124"/>
+      <c r="I33" s="46"/>
     </row>
     <row r="34" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="126"/>
-      <c r="B34" s="127"/>
-      <c r="C34" s="127"/>
-      <c r="D34" s="128"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="126"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="126"/>
-      <c r="I34" s="128"/>
+      <c r="A34" s="47"/>
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="83"/>
-      <c r="C35" s="83"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="85" t="s">
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="82" t="s">
+      <c r="F35" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="G35" s="84"/>
-      <c r="H35" s="82" t="s">
+      <c r="G35" s="21"/>
+      <c r="H35" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I35" s="84"/>
+      <c r="I35" s="21"/>
     </row>
     <row r="36" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="84"/>
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="84"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="84"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="83"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="82"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="84"/>
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="83"/>
-      <c r="D39" s="84"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="82"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="82"/>
-      <c r="I39" s="84"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="82"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="84"/>
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="82"/>
-      <c r="G41" s="84"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="84"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="82"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="82"/>
-      <c r="I42" s="84"/>
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="83"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="84"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="82"/>
-      <c r="G43" s="84"/>
-      <c r="H43" s="82"/>
-      <c r="I43" s="84"/>
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="84"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="56"/>
-    </row>
-    <row r="46" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="111" t="s">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="35"/>
+    </row>
+    <row r="46" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="112"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="112"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="130" t="s">
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="68" t="s">
+      <c r="G46" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="H46" s="68"/>
-      <c r="I46" s="86"/>
-    </row>
-    <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="131"/>
-      <c r="B47" s="132"/>
-      <c r="C47" s="132"/>
-      <c r="D47" s="132"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="134" t="s">
+      <c r="H46" s="121"/>
+      <c r="I46" s="126"/>
+    </row>
+    <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="87" t="s">
+      <c r="G47" s="125" t="s">
         <v>40</v>
       </c>
-      <c r="H47" s="87"/>
-      <c r="I47" s="80"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="123"/>
     </row>
     <row r="48" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="135" t="s">
+      <c r="A48" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="135"/>
-      <c r="C48" s="135"/>
-      <c r="D48" s="135"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="135"/>
-      <c r="G48" s="135"/>
-      <c r="H48" s="135"/>
-      <c r="I48" s="136"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2570,32 +2545,32 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="88" t="s">
+      <c r="A49" s="128" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="137" t="s">
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="129"/>
+      <c r="H49" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="10"/>
+      <c r="I49" s="127"/>
     </row>
     <row r="50" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="138" t="s">
+      <c r="A50" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138"/>
-      <c r="D50" s="138"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="138"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="138"/>
-      <c r="I50" s="138"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2616,30 +2591,98 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="90"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
-      <c r="H51" s="60"/>
-      <c r="I51" s="91"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="27"/>
     </row>
     <row r="52" spans="1:27" s="6" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="92"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="94"/>
+      <c r="A52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="A50:I50"/>
     <mergeCell ref="A51:I52"/>
@@ -2654,74 +2697,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="F42:G42"/>
     <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H44:I44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDFBD11D-0E17-4B43-AAF3-49AC4DB84E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB8993E-1256-4DEE-90CD-979EC66D5713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,10 +139,10 @@
     <t>Nº da RNC:</t>
   </si>
   <si>
-    <t>INFORMAÇÕES ADICIONAIS</t>
-  </si>
-  <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>CONCLUSÃO</t>
   </si>
 </sst>
 </file>
@@ -302,7 +302,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -1033,6 +1033,37 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1093,6 +1124,15 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1153,13 +1193,16 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1297,6 +1340,9 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1321,10 +1367,16 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1337,6 +1389,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1384,47 +1442,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1788,8 +1819,8 @@
   </sheetPr>
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1806,111 +1837,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="103"/>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="112"/>
+      <c r="B1" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="110" t="s">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="111"/>
+      <c r="H1" s="120"/>
       <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="104"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="110" t="s">
+      <c r="A2" s="113"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="111"/>
+      <c r="H2" s="120"/>
       <c r="I2" s="2">
         <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="104"/>
-      <c r="B3" s="112" t="s">
+      <c r="A3" s="113"/>
+      <c r="B3" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="110" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="111"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="104"/>
-      <c r="B4" s="113"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="114"/>
-      <c r="G4" s="115" t="s">
+      <c r="A4" s="113"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="123"/>
+      <c r="G4" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="106"/>
+      <c r="H4" s="115"/>
       <c r="I4" s="9">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="104"/>
     </row>
     <row r="7" spans="1:27" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="118" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="G7" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="108"/>
+      <c r="I7" s="109"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -1931,192 +1962,192 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="116"/>
+      <c r="D8" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="102"/>
       <c r="F8" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="117" t="s">
-        <v>40</v>
+      <c r="G8" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="117" t="s">
-        <v>40</v>
+      <c r="I8" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
+      <c r="A9" s="110"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
       <c r="F9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="116" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
+      <c r="G9" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102"/>
     </row>
     <row r="10" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
-      <c r="G12" s="96"/>
-      <c r="H12" s="96"/>
-      <c r="I12" s="96"/>
+      <c r="A12" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="90"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="91" t="s">
+      <c r="A14" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="93"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="120" t="s">
-        <v>40</v>
+      <c r="G14" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="120" t="s">
-        <v>40</v>
+      <c r="I14" s="20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="94"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="84"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="121"/>
-      <c r="I15" s="122"/>
+      <c r="G15" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="42"/>
+      <c r="I15" s="100"/>
     </row>
     <row r="16" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="75"/>
     </row>
     <row r="17" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74"/>
+      <c r="A17" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="78"/>
     </row>
     <row r="18" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="77"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="77"/>
+      <c r="A19" s="79"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="81"/>
     </row>
     <row r="20" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="80"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="83"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2137,172 +2168,172 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="81"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="85" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="123"/>
-      <c r="H22" s="85" t="s">
+      <c r="G22" s="45"/>
+      <c r="H22" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="123"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="124"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="124"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="91"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="68"/>
+      <c r="B24" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="72"/>
     </row>
     <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="B25" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="58"/>
     </row>
     <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="54"/>
+      <c r="B26" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="58"/>
     </row>
     <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
+      <c r="B27" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="58"/>
     </row>
     <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="54"/>
+      <c r="B28" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="58"/>
     </row>
     <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
-      <c r="I29" s="54"/>
+      <c r="B29" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
     </row>
     <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
     </row>
     <row r="31" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="60"/>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="62"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="64"/>
-      <c r="F32" s="64"/>
-      <c r="G32" s="64"/>
-      <c r="H32" s="64"/>
-      <c r="I32" s="65"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="69"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2323,208 +2354,208 @@
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="50" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="46"/>
-      <c r="H33" s="44" t="s">
+      <c r="G33" s="50"/>
+      <c r="H33" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="46"/>
+      <c r="I33" s="50"/>
     </row>
     <row r="34" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="49"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="53"/>
     </row>
     <row r="35" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
+      <c r="A35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="21"/>
+        <v>39</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="G35" s="24"/>
+      <c r="H35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="21"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="11"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="21"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="11"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="21"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="21"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
       <c r="E38" s="11"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="21"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="24"/>
       <c r="E39" s="11"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="24"/>
       <c r="E40" s="11"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="21"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="24"/>
       <c r="E41" s="11"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="21"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="24"/>
       <c r="E42" s="11"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="21"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="24"/>
       <c r="E43" s="11"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="21"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="24"/>
       <c r="E44" s="11"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="35"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="38"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="A46" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="38"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="41"/>
       <c r="F46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="121" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="121"/>
-      <c r="I46" s="126"/>
+      <c r="G46" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="H46" s="42"/>
+      <c r="I46" s="43"/>
     </row>
     <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="41"/>
+      <c r="A47" s="127"/>
+      <c r="B47" s="128"/>
+      <c r="C47" s="128"/>
+      <c r="D47" s="128"/>
+      <c r="E47" s="129"/>
       <c r="F47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="125" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="125"/>
-      <c r="I47" s="123"/>
+      <c r="G47" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
     </row>
     <row r="48" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="23"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="26"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2545,32 +2576,32 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="128" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="128"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="F49" s="128"/>
-      <c r="G49" s="129"/>
+      <c r="A49" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="126"/>
       <c r="H49" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I49" s="127"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
+      <c r="A50" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2591,29 +2622,29 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="27"/>
+      <c r="A51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:27" s="6" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="29"/>
-      <c r="F52" s="29"/>
-      <c r="G52" s="29"/>
-      <c r="H52" s="29"/>
-      <c r="I52" s="30"/>
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="84">
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
@@ -2689,9 +2720,10 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:E47"/>
     <mergeCell ref="G46:I46"/>
     <mergeCell ref="G47:I47"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="F41:G41"/>
     <mergeCell ref="A42:D42"/>

--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pcp2\formatarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB8993E-1256-4DEE-90CD-979EC66D5713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A21E6530-0BE0-4001-9DAC-D17921E79CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RNCAC GQ-001-000" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'RNCAC GQ-001-000'!$A$1:$I$52</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -1136,11 +1139,275 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1175,278 +1442,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1819,8 +1822,8 @@
   </sheetPr>
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46:E47"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,111 +1840,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112"/>
-      <c r="B1" s="114" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="119" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="120"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="113"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="119" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="120"/>
+      <c r="H2" s="36"/>
       <c r="I2" s="2">
         <v>45293</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="113"/>
-      <c r="B3" s="121" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="119" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="120"/>
+      <c r="H3" s="36"/>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="123"/>
-      <c r="G4" s="124" t="s">
+      <c r="A4" s="28"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="115"/>
+      <c r="H4" s="31"/>
       <c r="I4" s="9">
         <v>44197</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
     </row>
     <row r="6" spans="1:27" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
     </row>
     <row r="7" spans="1:27" ht="24.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="108" t="s">
+      <c r="G7" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="109"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="5"/>
@@ -1962,19 +1965,19 @@
       <c r="AA7" s="4"/>
     </row>
     <row r="8" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110" t="s">
+      <c r="A8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="111" t="s">
+      <c r="C8" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="49"/>
       <c r="F8" s="18" t="s">
         <v>12</v>
       </c>
@@ -1990,78 +1993,78 @@
       <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
     </row>
     <row r="10" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-      <c r="I10" s="92"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
     </row>
     <row r="11" spans="1:27" s="6" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
     </row>
     <row r="12" spans="1:27" s="6" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
     </row>
     <row r="13" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="93"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
     </row>
     <row r="14" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="96" t="s">
+      <c r="A14" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
       <c r="F14" s="17" t="s">
         <v>35</v>
       </c>
@@ -2076,78 +2079,78 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
       <c r="F15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="100"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" spans="1:27" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="75"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="78"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
     </row>
     <row r="18" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
+      <c r="A18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
     </row>
     <row r="19" spans="1:27" s="6" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="79"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="81"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="73"/>
     </row>
     <row r="20" spans="1:27" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="76"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
@@ -2168,172 +2171,172 @@
       <c r="AA20" s="4"/>
     </row>
     <row r="21" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="66"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="89" t="s">
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="45"/>
-      <c r="H22" s="89" t="s">
+      <c r="G22" s="86"/>
+      <c r="H22" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="45"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="91"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="87"/>
     </row>
     <row r="24" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="72"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="95"/>
     </row>
     <row r="25" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="58"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="58"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="97"/>
     </row>
     <row r="28" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="58"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="97"/>
     </row>
     <row r="30" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61" t="s">
+      <c r="B30" s="109"/>
+      <c r="C30" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="112"/>
     </row>
     <row r="31" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="66"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="78"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="79"/>
     </row>
     <row r="32" spans="1:27" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="69"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="90"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="90"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="91"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2354,180 +2357,180 @@
       <c r="AA32" s="4"/>
     </row>
     <row r="33" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="50"/>
-      <c r="E33" s="54" t="s">
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="48" t="s">
+      <c r="F33" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="48" t="s">
+      <c r="G33" s="102"/>
+      <c r="H33" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="I33" s="50"/>
+      <c r="I33" s="102"/>
     </row>
     <row r="34" spans="1:27" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="51"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="53"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="23"/>
       <c r="E35" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="I35" s="24"/>
+      <c r="I35" s="23"/>
     </row>
     <row r="36" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="23"/>
       <c r="E36" s="11"/>
       <c r="F36" s="22"/>
-      <c r="G36" s="24"/>
+      <c r="G36" s="23"/>
       <c r="H36" s="22"/>
-      <c r="I36" s="24"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="23"/>
       <c r="E37" s="11"/>
       <c r="F37" s="22"/>
-      <c r="G37" s="24"/>
+      <c r="G37" s="23"/>
       <c r="H37" s="22"/>
-      <c r="I37" s="24"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="23"/>
       <c r="E38" s="11"/>
       <c r="F38" s="22"/>
-      <c r="G38" s="24"/>
+      <c r="G38" s="23"/>
       <c r="H38" s="22"/>
-      <c r="I38" s="24"/>
+      <c r="I38" s="23"/>
     </row>
     <row r="39" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="23"/>
       <c r="E39" s="11"/>
       <c r="F39" s="22"/>
-      <c r="G39" s="24"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="22"/>
-      <c r="I39" s="24"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="23"/>
       <c r="E40" s="11"/>
       <c r="F40" s="22"/>
-      <c r="G40" s="24"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="22"/>
-      <c r="I40" s="24"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="23"/>
       <c r="E41" s="11"/>
       <c r="F41" s="22"/>
-      <c r="G41" s="24"/>
+      <c r="G41" s="23"/>
       <c r="H41" s="22"/>
-      <c r="I41" s="24"/>
+      <c r="I41" s="23"/>
     </row>
     <row r="42" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
-      <c r="D42" s="24"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="23"/>
       <c r="E42" s="11"/>
       <c r="F42" s="22"/>
-      <c r="G42" s="24"/>
+      <c r="G42" s="23"/>
       <c r="H42" s="22"/>
-      <c r="I42" s="24"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="24"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="23"/>
       <c r="E43" s="11"/>
       <c r="F43" s="22"/>
-      <c r="G43" s="24"/>
+      <c r="G43" s="23"/>
       <c r="H43" s="22"/>
-      <c r="I43" s="24"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" spans="1:27" s="6" customFormat="1" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="24"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="23"/>
       <c r="E44" s="11"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="24"/>
+      <c r="G44" s="23"/>
       <c r="H44" s="22"/>
-      <c r="I44" s="24"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" spans="1:27" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="34"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="38"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="123"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="124"/>
     </row>
     <row r="46" spans="1:27" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="41"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="82"/>
       <c r="F46" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G46" s="42" t="s">
+      <c r="G46" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="H46" s="42"/>
-      <c r="I46" s="43"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="125"/>
     </row>
     <row r="47" spans="1:27" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="127"/>
@@ -2538,24 +2541,24 @@
       <c r="F47" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="44" t="s">
+      <c r="G47" s="126" t="s">
         <v>39</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="45"/>
+      <c r="H47" s="126"/>
+      <c r="I47" s="86"/>
     </row>
     <row r="48" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="26"/>
+      <c r="B48" s="113"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="114"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
@@ -2576,32 +2579,32 @@
       <c r="AA48" s="4"/>
     </row>
     <row r="49" spans="1:27" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="125" t="s">
+      <c r="A49" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="126"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="12" t="s">
         <v>38</v>
       </c>
       <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
+      <c r="H50" s="115"/>
+      <c r="I50" s="115"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
@@ -2622,29 +2625,97 @@
       <c r="AA50" s="4"/>
     </row>
     <row r="51" spans="1:27" s="6" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="30"/>
+      <c r="A51" s="116"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="118"/>
     </row>
     <row r="52" spans="1:27" s="6" customFormat="1" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
+      <c r="A52" s="119"/>
+      <c r="B52" s="120"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
+      <c r="E52" s="120"/>
+      <c r="F52" s="120"/>
+      <c r="G52" s="120"/>
+      <c r="H52" s="120"/>
+      <c r="I52" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A50:I50"/>
+    <mergeCell ref="A51:I52"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="A46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:G34"/>
+    <mergeCell ref="H33:I34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:I30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="A17:I20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="A12:I12"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B1:F2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B3:F4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
@@ -2661,76 +2732,10 @@
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B1:F2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A16:I16"/>
-    <mergeCell ref="A17:I20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:G34"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:I30"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I52"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A43:D43"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="41" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -10,14 +10,14 @@
     <sheet r:id="rId1" sheetId="1" name="RNCAC GQ-001-000"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'RNCAC GQ-001-000'!$A$1:$I$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">='RNCAC GQ-001-000'!$A$1:$I$56</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="41">
   <si>
     <t>Registro da Qualidade</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>RNC Nº</t>
@@ -152,7 +149,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,6 +186,12 @@
       <sz val="10"/>
       <color rgb="FFff0000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -932,7 +935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="133">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1006,79 +1009,67 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="7" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
@@ -1087,196 +1078,184 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="29" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="37" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="31" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="32" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="34" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="37" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="10" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="8" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="10" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="11" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="8" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="20" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="41" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="23" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="24" applyBorder="1" fontId="9" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="43" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
@@ -1288,70 +1267,70 @@
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="44" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="44" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" quotePrefix="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="12" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="13" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="8" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="27" applyBorder="1" fontId="9" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="1" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -1656,39 +1635,39 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:AA52"/>
+  <dimension ref="A1:AA56"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="139" width="20.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="139" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="139" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="139" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="139" width="28.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="139" width="15.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="139" width="17.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="139" width="18.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="140" width="24.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="139" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="130" width="20.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="130" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="130" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="130" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="130" width="28.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="130" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="130" width="17.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="130" width="18.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="131" width="24.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="132" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="23.25">
@@ -1900,56 +1879,46 @@
       <c r="F7" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="34"/>
+      <c r="X7" s="34"/>
+      <c r="Y7" s="34"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
+      <c r="A8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="22.5">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="36"/>
+      <c r="C8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="38" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40" t="s">
+      <c r="G8" s="38"/>
+      <c r="H8" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="42" t="s">
-        <v>12</v>
-      </c>
+      <c r="I8" s="40"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="17"/>
@@ -1970,19 +1939,17 @@
       <c r="AA8" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="39" customFormat="1" s="21">
-      <c r="A9" s="40"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="44"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -2003,15 +1970,15 @@
       <c r="AA9" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75" customFormat="1" s="21">
-      <c r="A10" s="45"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
       <c r="L10" s="25"/>
@@ -2032,19 +1999,19 @@
       <c r="AA10" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="22.5" customFormat="1" s="21">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="44"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
@@ -2065,17 +2032,15 @@
       <c r="AA11" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="20.25" customFormat="1" s="21">
-      <c r="A12" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="49"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
@@ -2096,15 +2061,15 @@
       <c r="AA12" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="51"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="8"/>
@@ -2125,25 +2090,21 @@
       <c r="AA13" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="23.25" customFormat="1" s="21">
-      <c r="A14" s="52" t="s">
+      <c r="A14" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="55" t="s">
+      <c r="G14" s="52"/>
+      <c r="H14" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="56" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="57" t="s">
-        <v>12</v>
-      </c>
+      <c r="I14" s="53"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
@@ -2164,19 +2125,17 @@
       <c r="AA14" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="48" customFormat="1" s="21">
-      <c r="A15" s="58"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="63"/>
-      <c r="I15" s="64"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="25"/>
@@ -2197,17 +2156,17 @@
       <c r="AA15" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="22.5">
-      <c r="A16" s="65" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="67"/>
+      <c r="A16" s="59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
@@ -2228,17 +2187,17 @@
       <c r="AA16" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="27.95" customFormat="1" s="21">
-      <c r="A17" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
+      <c r="A17" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="64"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -2259,15 +2218,15 @@
       <c r="AA17" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="27.95" customFormat="1" s="21">
-      <c r="A18" s="71"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="72"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="66"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -2288,15 +2247,15 @@
       <c r="AA18" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="27.95" customFormat="1" s="21">
-      <c r="A19" s="71"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="72"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="66"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -2317,44 +2276,44 @@
       <c r="AA19" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="23.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="74"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="50"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="8"/>
@@ -2375,21 +2334,21 @@
       <c r="AA21" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75" customFormat="1" s="21">
-      <c r="A22" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="78" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="80"/>
+      <c r="A22" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="72" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="73"/>
+      <c r="H22" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="74"/>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
       <c r="L22" s="25"/>
@@ -2410,15 +2369,15 @@
       <c r="AA22" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="21">
-      <c r="A23" s="58"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="83"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="77"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -2439,19 +2398,17 @@
       <c r="AA23" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="45">
-      <c r="A24" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
+      <c r="A24" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="82"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
@@ -2472,19 +2429,17 @@
       <c r="AA24" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="45">
-      <c r="A25" s="84" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="90"/>
+      <c r="A25" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="83"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="84"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="8"/>
@@ -2505,19 +2460,17 @@
       <c r="AA25" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="45">
-      <c r="A26" s="84" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="90"/>
+      <c r="A26" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="83"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="8"/>
@@ -2538,19 +2491,17 @@
       <c r="AA26" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="45">
-      <c r="A27" s="84" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="90"/>
+      <c r="A27" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="83"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="84"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="8"/>
@@ -2571,19 +2522,17 @@
       <c r="AA27" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="45">
-      <c r="A28" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="90"/>
+      <c r="A28" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="83"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="84"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="8"/>
@@ -2604,19 +2553,17 @@
       <c r="AA28" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="45">
-      <c r="A29" s="84" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="90"/>
+      <c r="A29" s="78" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="83"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="84"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="8"/>
@@ -2637,19 +2584,17 @@
       <c r="AA29" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="45">
-      <c r="A30" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="95"/>
+      <c r="A30" s="85" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="88"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="89"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="8"/>
@@ -2670,15 +2615,15 @@
       <c r="AA30" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="6">
-      <c r="A31" s="50"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="77"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="8"/>
@@ -2699,54 +2644,54 @@
       <c r="AA31" s="8"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="36.75">
-      <c r="A32" s="96" t="s">
+      <c r="A32" s="90" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="34"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="34"/>
+      <c r="S32" s="34"/>
+      <c r="T32" s="34"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="34"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="34"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="21">
+      <c r="A33" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="98"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="21">
-      <c r="A33" s="99" t="s">
+      <c r="B33" s="94"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102" t="s">
+      <c r="F33" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="99" t="s">
+      <c r="G33" s="95"/>
+      <c r="H33" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="I33" s="103"/>
+      <c r="I33" s="97"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -2767,15 +2712,15 @@
       <c r="AA33" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="9" customFormat="1" s="21">
-      <c r="A34" s="104"/>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="108"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="102"/>
       <c r="J34" s="25"/>
       <c r="K34" s="25"/>
       <c r="L34" s="25"/>
@@ -2796,23 +2741,15 @@
       <c r="AA34" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A35" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="111"/>
-      <c r="H35" s="109" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" s="113"/>
+      <c r="A35" s="103"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="107"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -2833,15 +2770,15 @@
       <c r="AA35" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A36" s="114"/>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="114"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="114"/>
-      <c r="I36" s="113"/>
+      <c r="A36" s="103"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="107"/>
       <c r="J36" s="25"/>
       <c r="K36" s="25"/>
       <c r="L36" s="25"/>
@@ -2862,15 +2799,15 @@
       <c r="AA36" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A37" s="114"/>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="114"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="114"/>
-      <c r="I37" s="113"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="105"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="107"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -2891,15 +2828,15 @@
       <c r="AA37" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A38" s="114"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="111"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="113"/>
+      <c r="A38" s="103"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="105"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="107"/>
       <c r="J38" s="25"/>
       <c r="K38" s="25"/>
       <c r="L38" s="25"/>
@@ -2920,15 +2857,15 @@
       <c r="AA38" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A39" s="114"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="114"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="113"/>
+      <c r="A39" s="103"/>
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="105"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="107"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -2948,16 +2885,16 @@
       <c r="Z39" s="25"/>
       <c r="AA39" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A40" s="114"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="114"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="114"/>
-      <c r="I40" s="113"/>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25" customFormat="1" s="21">
+      <c r="A40" s="103"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="105"/>
+      <c r="H40" s="103"/>
+      <c r="I40" s="107"/>
       <c r="J40" s="25"/>
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
@@ -2977,16 +2914,16 @@
       <c r="Z40" s="25"/>
       <c r="AA40" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A41" s="114"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="114"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="114"/>
-      <c r="I41" s="113"/>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25" customFormat="1" s="21">
+      <c r="A41" s="103"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="105"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="105"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="107"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -3006,16 +2943,16 @@
       <c r="Z41" s="25"/>
       <c r="AA41" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A42" s="114"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="115"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="114"/>
-      <c r="I42" s="113"/>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25" customFormat="1" s="21">
+      <c r="A42" s="103"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="105"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="105"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="107"/>
       <c r="J42" s="25"/>
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
@@ -3035,16 +2972,16 @@
       <c r="Z42" s="25"/>
       <c r="AA42" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A43" s="114"/>
-      <c r="B43" s="110"/>
-      <c r="C43" s="110"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="114"/>
-      <c r="G43" s="111"/>
-      <c r="H43" s="114"/>
-      <c r="I43" s="113"/>
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25" customFormat="1" s="21">
+      <c r="A43" s="103"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="105"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="107"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -3064,45 +3001,45 @@
       <c r="Z43" s="25"/>
       <c r="AA43" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="60" customFormat="1" s="21">
-      <c r="A44" s="114"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="115"/>
-      <c r="F44" s="114"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="114"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-      <c r="X44" s="25"/>
-      <c r="Y44" s="25"/>
-      <c r="Z44" s="25"/>
-      <c r="AA44" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="6">
-      <c r="A45" s="116"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="118"/>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="103"/>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="105"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="103"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="103"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="103"/>
+      <c r="I45" s="107"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="8"/>
@@ -3122,55 +3059,45 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="21">
-      <c r="A46" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="53"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="G46" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="63"/>
-      <c r="I46" s="64"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-      <c r="AA46" s="25"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="21">
-      <c r="A47" s="120"/>
-      <c r="B47" s="121"/>
-      <c r="C47" s="121"/>
-      <c r="D47" s="121"/>
-      <c r="E47" s="122"/>
-      <c r="F47" s="123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="33"/>
-      <c r="I47" s="34"/>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="103"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="105"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25" customFormat="1" s="21">
+      <c r="A47" s="103"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="107"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -3190,51 +3117,45 @@
       <c r="Z47" s="25"/>
       <c r="AA47" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="25.5">
-      <c r="A48" s="124" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="25.5">
-      <c r="A49" s="126" t="s">
-        <v>12</v>
-      </c>
-      <c r="B49" s="127"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="128"/>
-      <c r="H49" s="129" t="s">
-        <v>40</v>
-      </c>
-      <c r="I49" s="130"/>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="103"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="108"/>
+      <c r="B49" s="109"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="110"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="8"/>
@@ -3254,47 +3175,51 @@
       <c r="Z49" s="8"/>
       <c r="AA49" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="36.75">
-      <c r="A50" s="131" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="131"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="131"/>
-      <c r="F50" s="131"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="131"/>
-      <c r="I50" s="132"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="42.75" customFormat="1" s="21">
-      <c r="A51" s="133"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="135"/>
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="23.25" customFormat="1" s="21">
+      <c r="A50" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="53"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="22.5" customFormat="1" s="21">
+      <c r="A51" s="112"/>
+      <c r="B51" s="113"/>
+      <c r="C51" s="113"/>
+      <c r="D51" s="113"/>
+      <c r="E51" s="114"/>
+      <c r="F51" s="115" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="33"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -3314,37 +3239,159 @@
       <c r="Z51" s="25"/>
       <c r="AA51" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="42.75" customFormat="1" s="21">
-      <c r="A52" s="136"/>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
-      <c r="I52" s="138"/>
-      <c r="J52" s="25"/>
-      <c r="K52" s="25"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="25"/>
-      <c r="O52" s="25"/>
-      <c r="P52" s="25"/>
-      <c r="Q52" s="25"/>
-      <c r="R52" s="25"/>
-      <c r="S52" s="25"/>
-      <c r="T52" s="25"/>
-      <c r="U52" s="25"/>
-      <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-      <c r="X52" s="25"/>
-      <c r="Y52" s="25"/>
-      <c r="Z52" s="25"/>
-      <c r="AA52" s="25"/>
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="22.5">
+      <c r="A52" s="116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="116"/>
+      <c r="C52" s="116"/>
+      <c r="D52" s="116"/>
+      <c r="E52" s="116"/>
+      <c r="F52" s="116"/>
+      <c r="G52" s="116"/>
+      <c r="H52" s="116"/>
+      <c r="I52" s="117"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
+      <c r="L52" s="34"/>
+      <c r="M52" s="34"/>
+      <c r="N52" s="34"/>
+      <c r="O52" s="34"/>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34"/>
+      <c r="S52" s="34"/>
+      <c r="T52" s="34"/>
+      <c r="U52" s="34"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="34"/>
+      <c r="X52" s="34"/>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="25.5">
+      <c r="A53" s="118"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="119"/>
+      <c r="H53" s="120" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="121"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="36.75">
+      <c r="A54" s="122" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="122"/>
+      <c r="C54" s="122"/>
+      <c r="D54" s="122"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="122"/>
+      <c r="G54" s="122"/>
+      <c r="H54" s="122"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="34"/>
+      <c r="K54" s="34"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="34"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="34"/>
+      <c r="Q54" s="34"/>
+      <c r="R54" s="34"/>
+      <c r="S54" s="34"/>
+      <c r="T54" s="34"/>
+      <c r="U54" s="34"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="34"/>
+      <c r="X54" s="34"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="42.75" customFormat="1" s="21">
+      <c r="A55" s="124"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="126"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="42.75" customFormat="1" s="21">
+      <c r="A56" s="127"/>
+      <c r="B56" s="128"/>
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="128"/>
+      <c r="G56" s="128"/>
+      <c r="H56" s="128"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="96">
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:F2"/>
     <mergeCell ref="G1:H1"/>
@@ -3420,15 +3467,27 @@
     <mergeCell ref="A44:D44"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="H44:I44"/>
-    <mergeCell ref="A45:I45"/>
-    <mergeCell ref="A46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="A51:I52"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="A50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A55:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/modelo_final_v2.xlsx
+++ b/modelo_final_v2.xlsx
@@ -2885,7 +2885,7 @@
       <c r="Z39" s="25"/>
       <c r="AA39" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="20.25" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="49.5" customFormat="1" s="21">
       <c r="A40" s="103"/>
       <c r="B40" s="104"/>
       <c r="C40" s="104"/>
@@ -2914,7 +2914,7 @@
       <c r="Z40" s="25"/>
       <c r="AA40" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="20.25" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="48.75" customFormat="1" s="21">
       <c r="A41" s="103"/>
       <c r="B41" s="104"/>
       <c r="C41" s="104"/>
@@ -2943,7 +2943,7 @@
       <c r="Z41" s="25"/>
       <c r="AA41" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="20.25" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="54" customFormat="1" s="21">
       <c r="A42" s="103"/>
       <c r="B42" s="104"/>
       <c r="C42" s="104"/>
@@ -2972,7 +2972,7 @@
       <c r="Z42" s="25"/>
       <c r="AA42" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="20.25" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="54" customFormat="1" s="21">
       <c r="A43" s="103"/>
       <c r="B43" s="104"/>
       <c r="C43" s="104"/>
@@ -3001,7 +3001,7 @@
       <c r="Z43" s="25"/>
       <c r="AA43" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="48">
       <c r="A44" s="103"/>
       <c r="B44" s="104"/>
       <c r="C44" s="104"/>
@@ -3030,7 +3030,7 @@
       <c r="Z44" s="8"/>
       <c r="AA44" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="42.75">
       <c r="A45" s="103"/>
       <c r="B45" s="104"/>
       <c r="C45" s="104"/>
@@ -3059,7 +3059,7 @@
       <c r="Z45" s="8"/>
       <c r="AA45" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="45.75">
       <c r="A46" s="103"/>
       <c r="B46" s="104"/>
       <c r="C46" s="104"/>
@@ -3088,7 +3088,7 @@
       <c r="Z46" s="8"/>
       <c r="AA46" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="20.25" customFormat="1" s="21">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="35.25" customFormat="1" s="21">
       <c r="A47" s="103"/>
       <c r="B47" s="104"/>
       <c r="C47" s="104"/>
@@ -3117,7 +3117,7 @@
       <c r="Z47" s="25"/>
       <c r="AA47" s="25"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="39">
       <c r="A48" s="103"/>
       <c r="B48" s="104"/>
       <c r="C48" s="104"/>
@@ -3146,7 +3146,7 @@
       <c r="Z48" s="8"/>
       <c r="AA48" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="45.75">
       <c r="A49" s="108"/>
       <c r="B49" s="109"/>
       <c r="C49" s="109"/>
